--- a/assets/templates/import-movie-template-customer-catalog.xlsx
+++ b/assets/templates/import-movie-template-customer-catalog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Film metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -57,12 +57,32 @@
 (list of choices)</t>
   </si>
   <si>
-    <t xml:space="preserve">Serie
-(number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Episode Count
-(number)</t>
+    <t xml:space="preserve">Series Number
+(only if content type = serie or documentary)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Episode Count
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(only if content type = serie or documentary)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Production status
@@ -2482,7 +2502,7 @@
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2580,6 +2600,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2985,19 +3012,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3006,34 +3025,42 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3041,7 +3068,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3057,7 +3084,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3065,23 +3092,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3089,15 +3116,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3105,7 +3132,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3216,12 +3243,12 @@
   </sheetPr>
   <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="14" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="14" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="E15" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="E14" activeCellId="0" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3230,7 +3257,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="26.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="34.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.33"/>
@@ -3244,7 +3271,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="27.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="21" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="27.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="40.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="0" width="22.5"/>
@@ -13563,8 +13590,8 @@
   </sheetPr>
   <dimension ref="A1:Y257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E14:F14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
